--- a/keys.xlsx
+++ b/keys.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>快乐大本营</t>
   </si>
@@ -116,6 +117,9 @@
   </si>
   <si>
     <t>偶像来了</t>
+  </si>
+  <si>
+    <t>星动亚洲</t>
   </si>
 </sst>
 </file>
@@ -648,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -684,4 +688,35 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>